--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R07 吹膜供料系统运行记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R07 吹膜供料系统运行记录.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="横" sheetId="1" r:id="rId1"/>
     <sheet name="纵" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="20170926" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,64 @@
       </rPr>
       <t>□</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颇尔奥星包装科技（北京）有限责任公司</t>
+  </si>
+  <si>
+    <t>SOP-MFG-301-R07A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吹膜供料系统运行记录
+Running Record of  Feeding Unit</t>
+  </si>
+  <si>
+    <t>生产日期</t>
+  </si>
+  <si>
+    <t>电机工作
+是否正常</t>
+  </si>
+  <si>
+    <t>气动阀工作
+是否正常</t>
+  </si>
+  <si>
+    <t>供料运行
+是否正常</t>
+  </si>
+  <si>
+    <t>有无报警显示</t>
+  </si>
+  <si>
+    <t>是否解除报警</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>复核人</t>
+  </si>
+  <si>
+    <t>白班  夜班</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>注：设备运行正常“√”，设备异常写明原因。</t>
+  </si>
+  <si>
+    <t>检查人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +483,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -596,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,6 +718,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -708,6 +799,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -717,17 +820,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,34 +1161,34 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="23" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -1129,7 +1223,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="10"/>
@@ -1139,11 +1233,11 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="10"/>
       <c r="C6" s="4"/>
       <c r="D6" s="10"/>
@@ -1151,11 +1245,11 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
       <c r="D7" s="10"/>
@@ -1163,11 +1257,11 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -1175,11 +1269,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10"/>
       <c r="C9" s="4"/>
       <c r="D9" s="10"/>
@@ -1187,11 +1281,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1199,11 +1293,11 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="14"/>
@@ -1213,11 +1307,11 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="10"/>
       <c r="C12" s="4"/>
       <c r="D12" s="10"/>
@@ -1225,11 +1319,11 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="10"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10"/>
@@ -1237,11 +1331,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="10"/>
@@ -1249,11 +1343,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="10"/>
       <c r="C15" s="4"/>
       <c r="D15" s="10"/>
@@ -1261,11 +1355,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1273,22 +1367,22 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1315,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1348,30 +1442,30 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
@@ -1403,7 +1497,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="16"/>
@@ -1413,10 +1507,10 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="30"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="16"/>
       <c r="C6" s="4"/>
       <c r="D6" s="16"/>
@@ -1424,10 +1518,10 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="30"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="16"/>
       <c r="C7" s="4"/>
       <c r="D7" s="16"/>
@@ -1435,10 +1529,10 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="16"/>
       <c r="C8" s="4"/>
       <c r="D8" s="16"/>
@@ -1446,10 +1540,10 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="16"/>
@@ -1457,10 +1551,10 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1468,10 +1562,10 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="16"/>
@@ -1481,10 +1575,10 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="16"/>
@@ -1492,10 +1586,10 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="16"/>
@@ -1503,10 +1597,10 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="16"/>
@@ -1514,10 +1608,10 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="16"/>
@@ -1525,10 +1619,10 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1536,10 +1630,10 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="16"/>
@@ -1549,10 +1643,10 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="16"/>
@@ -1560,10 +1654,10 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="16"/>
@@ -1571,10 +1665,10 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="16"/>
@@ -1582,10 +1676,10 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="16"/>
@@ -1593,10 +1687,10 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -1604,10 +1698,10 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
@@ -1617,10 +1711,10 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="16"/>
       <c r="C24" s="4"/>
       <c r="D24" s="16"/>
@@ -1628,10 +1722,10 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="16"/>
       <c r="C25" s="4"/>
       <c r="D25" s="16"/>
@@ -1639,10 +1733,10 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="16"/>
       <c r="C26" s="4"/>
       <c r="D26" s="16"/>
@@ -1650,10 +1744,10 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="16"/>
       <c r="C27" s="4"/>
       <c r="D27" s="16"/>
@@ -1661,10 +1755,10 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="38"/>
     </row>
     <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -1672,35 +1766,35 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="I5:I10"/>
     <mergeCell ref="I17:I22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1712,15 +1806,333 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="11" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R07 吹膜供料系统运行记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R07 吹膜供料系统运行记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AA1CCDF-9C4F-B246-B453-114895875D06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="2"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="22160" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="横" sheetId="1" r:id="rId1"/>
@@ -407,12 +408,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -478,7 +479,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,7 +488,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -799,6 +800,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
@@ -811,21 +821,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,7 +842,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -916,6 +917,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -951,6 +969,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1126,25 +1161,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
-    <col min="3" max="7" width="12.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
+    <col min="3" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="55.5" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1209,7 @@
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
     </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="28.5" customHeight="1">
       <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1225,7 @@
       <c r="I3" s="33"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="34.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1271,7 @@
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="38"/>
       <c r="B6" s="10"/>
       <c r="C6" s="4"/>
@@ -1248,7 +1283,7 @@
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
     </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="38"/>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
@@ -1260,7 +1295,7 @@
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="38"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
@@ -1272,7 +1307,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="38"/>
       <c r="B9" s="10"/>
       <c r="C9" s="4"/>
@@ -1284,7 +1319,7 @@
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.5" customHeight="1" thickBot="1">
       <c r="A10" s="39"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1296,7 +1331,7 @@
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
     </row>
-    <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1345,7 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
     </row>
-    <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="38"/>
       <c r="B12" s="10"/>
       <c r="C12" s="4"/>
@@ -1322,7 +1357,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="25.5" customHeight="1">
       <c r="A13" s="38"/>
       <c r="B13" s="10"/>
       <c r="C13" s="4"/>
@@ -1334,7 +1369,7 @@
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="25.5" customHeight="1">
       <c r="A14" s="38"/>
       <c r="B14" s="10"/>
       <c r="C14" s="4"/>
@@ -1346,7 +1381,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="25.5" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="10"/>
       <c r="C15" s="4"/>
@@ -1358,7 +1393,7 @@
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
     </row>
-    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="25.5" customHeight="1">
       <c r="A16" s="38"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1370,7 +1405,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
     </row>
-    <row r="17" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="48.75" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
@@ -1406,27 +1441,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
     <col min="6" max="7" width="7.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="47.25" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
@@ -1454,20 +1489,20 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47" t="s">
+    <row r="3" spans="1:9" ht="27" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-    </row>
-    <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" ht="34.5" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
@@ -1496,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="23" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1544,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="23" customHeight="1">
       <c r="A6" s="38"/>
       <c r="B6" s="16"/>
       <c r="C6" s="4"/>
@@ -1520,7 +1555,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="23" customHeight="1">
       <c r="A7" s="38"/>
       <c r="B7" s="16"/>
       <c r="C7" s="4"/>
@@ -1531,7 +1566,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="38"/>
     </row>
-    <row r="8" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="23" customHeight="1">
       <c r="A8" s="38"/>
       <c r="B8" s="16"/>
       <c r="C8" s="4"/>
@@ -1542,7 +1577,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="38"/>
     </row>
-    <row r="9" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="23" customHeight="1">
       <c r="A9" s="38"/>
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
@@ -1553,7 +1588,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="38"/>
     </row>
-    <row r="10" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="23" customHeight="1">
       <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1564,7 +1599,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="38"/>
     </row>
-    <row r="11" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="23" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>19</v>
       </c>
@@ -1577,7 +1612,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="38"/>
     </row>
-    <row r="12" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="23" customHeight="1">
       <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
@@ -1588,7 +1623,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="38"/>
     </row>
-    <row r="13" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="23" customHeight="1">
       <c r="A13" s="38"/>
       <c r="B13" s="16"/>
       <c r="C13" s="4"/>
@@ -1599,7 +1634,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="23" customHeight="1">
       <c r="A14" s="38"/>
       <c r="B14" s="16"/>
       <c r="C14" s="4"/>
@@ -1610,7 +1645,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="38"/>
     </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="23" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
@@ -1621,7 +1656,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="38"/>
     </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="23" customHeight="1">
       <c r="A16" s="38"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1632,7 +1667,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="23" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1680,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="23" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
@@ -1656,7 +1691,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="38"/>
     </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="23" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
@@ -1667,7 +1702,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="23" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
@@ -1678,7 +1713,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="38"/>
     </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="23" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
@@ -1689,7 +1724,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="38"/>
     </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="23" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1700,7 +1735,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="23" customHeight="1">
       <c r="A23" s="38" t="s">
         <v>19</v>
       </c>
@@ -1713,7 +1748,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="38"/>
     </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="23" customHeight="1">
       <c r="A24" s="38"/>
       <c r="B24" s="16"/>
       <c r="C24" s="4"/>
@@ -1724,7 +1759,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="23" customHeight="1">
       <c r="A25" s="38"/>
       <c r="B25" s="16"/>
       <c r="C25" s="4"/>
@@ -1735,7 +1770,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="38"/>
     </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="23" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" s="16"/>
       <c r="C26" s="4"/>
@@ -1746,7 +1781,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="38"/>
     </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="23" customHeight="1">
       <c r="A27" s="38"/>
       <c r="B27" s="16"/>
       <c r="C27" s="4"/>
@@ -1757,7 +1792,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="38"/>
     </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="23" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1768,33 +1803,33 @@
       <c r="H28" s="8"/>
       <c r="I28" s="38"/>
     </row>
-    <row r="29" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:9" ht="60.75" customHeight="1">
+      <c r="A29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="I17:I22"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="I11:I16"/>
     <mergeCell ref="I23:I28"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="I17:I22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1805,23 +1840,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="11" width="11.625" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="38.25" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>22</v>
       </c>
@@ -1853,7 +1888,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="22" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>18</v>
       </c>
@@ -1868,7 +1903,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="20" customFormat="1" ht="41.25" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>23</v>
       </c>
@@ -1903,7 +1938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="22" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
@@ -1928,202 +1963,20 @@
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
     </row>
-    <row r="6" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+    <row r="6" spans="1:11" ht="22" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2137,12 +1990,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R07 吹膜供料系统运行记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/C/SOP-MFG-301-R07 吹膜供料系统运行记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AA1CCDF-9C4F-B246-B453-114895875D06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F760B9B-4360-9343-9CBC-B76ADBE85D7F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="22160" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,6 +13,9 @@
     <sheet name="20170926" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'20170926'!$1:$4</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -800,6 +803,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -808,18 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1490,17 +1493,17 @@
       <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="27" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -1804,32 +1807,32 @@
       <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" ht="60.75" customHeight="1">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="I5:I10"/>
     <mergeCell ref="I17:I22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
